--- a/imageFeatures/level_features.xlsx
+++ b/imageFeatures/level_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="8" customWidth="1" min="18" max="18"/>
     <col width="8" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="10" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="9" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="8" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,150 +482,130 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>图片宽度</t>
+          <t>平均R值</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>图片高度</t>
+          <t>平均G值</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>宽高比</t>
+          <t>平均B值</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>总像素数</t>
+          <t>R标准差</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>平均R值</t>
+          <t>G标准差</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>平均G值</t>
+          <t>B标准差</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>平均B值</t>
+          <t>平均亮度</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>R标准差</t>
+          <t>亮度标准差</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>G标准差</t>
+          <t>唯一颜色数</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>B标准差</t>
+          <t>颜色丰富度</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>平均亮度</t>
+          <t>主色调1_R</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>亮度标准差</t>
+          <t>主色调1_G</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>唯一颜色数</t>
+          <t>主色调1_B</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>颜色丰富度</t>
+          <t>纹理均匀度</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>主色调1_R</t>
+          <t>平均梯度强度</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>主色调1_G</t>
+          <t>梯度标准差</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>主色调1_B</t>
+          <t>中心区域平均亮度</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>纹理均匀度</t>
+          <t>边缘区域平均亮度</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>平均梯度强度</t>
+          <t>中心边缘亮度差</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>梯度标准差</t>
+          <t>水平对称度</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>中心区域平均亮度</t>
+          <t>信息熵</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>边缘区域平均亮度</t>
+          <t>对比度</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>中心边缘亮度差</t>
+          <t>连通域数量</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>水平对称度</t>
+          <t>空白区域比例</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>信息熵</t>
+          <t>边缘像素比例</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>对比度</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>连通域数量</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>空白区域比例</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>边缘像素比例</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>边缘密度</t>
         </is>
@@ -638,104 +614,7380 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bg</t>
+          <t>level1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>images/bg.png</t>
+          <t>images\level1.png</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1668</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>1002</v>
+        <v>145</v>
       </c>
       <c r="F2" t="n">
-        <v>1.665</v>
+        <v>138</v>
       </c>
       <c r="G2" t="n">
-        <v>1671336</v>
+        <v>47.52</v>
       </c>
       <c r="H2" t="n">
+        <v>47.28</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="J2" t="n">
+        <v>143.13</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N2" t="n">
+        <v>114</v>
+      </c>
+      <c r="O2" t="n">
+        <v>121</v>
+      </c>
+      <c r="P2" t="n">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="S2" t="n">
+        <v>94.94</v>
+      </c>
+      <c r="T2" t="n">
+        <v>168.35</v>
+      </c>
+      <c r="U2" t="n">
+        <v>126.51</v>
+      </c>
+      <c r="V2" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>329</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4.233</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0423</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>level100</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>images\level100.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>165</v>
+      </c>
+      <c r="E3" t="n">
+        <v>151</v>
+      </c>
+      <c r="F3" t="n">
+        <v>140</v>
+      </c>
+      <c r="G3" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="H3" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="I3" t="n">
+        <v>66.72</v>
+      </c>
+      <c r="J3" t="n">
+        <v>154.67</v>
+      </c>
+      <c r="K3" t="n">
+        <v>63.06</v>
+      </c>
+      <c r="L3" t="n">
+        <v>121942</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>94</v>
+      </c>
+      <c r="O3" t="n">
+        <v>46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R3" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>153.37</v>
+      </c>
+      <c r="T3" t="n">
+        <v>135.64</v>
+      </c>
+      <c r="U3" t="n">
+        <v>164.54</v>
+      </c>
+      <c r="V3" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.867</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>63.06</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>795</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>35.94</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.654</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0965</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>images\level101.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>179</v>
+      </c>
+      <c r="E4" t="n">
+        <v>181</v>
+      </c>
+      <c r="F4" t="n">
+        <v>181</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44.26</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="I4" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="J4" t="n">
+        <v>181.01</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="L4" t="n">
+        <v>72608</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="N4" t="n">
+        <v>146</v>
+      </c>
+      <c r="O4" t="n">
+        <v>184</v>
+      </c>
+      <c r="P4" t="n">
+        <v>249</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R4" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="S4" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>186.65</v>
+      </c>
+      <c r="U4" t="n">
+        <v>183.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>422</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>33.39</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6.722</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0672</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>level102</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>images\level102.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" t="n">
+        <v>182</v>
+      </c>
+      <c r="F5" t="n">
+        <v>182</v>
+      </c>
+      <c r="G5" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>73.45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>181.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="L5" t="n">
+        <v>76069</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="N5" t="n">
+        <v>153</v>
+      </c>
+      <c r="O5" t="n">
+        <v>192</v>
+      </c>
+      <c r="P5" t="n">
+        <v>253</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R5" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>118.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>179.13</v>
+      </c>
+      <c r="U5" t="n">
+        <v>183.74</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.811</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>496</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>level103</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>images\level103.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>145</v>
+      </c>
+      <c r="E6" t="n">
+        <v>147</v>
+      </c>
+      <c r="F6" t="n">
+        <v>153</v>
+      </c>
+      <c r="G6" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>49.29</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49.84</v>
+      </c>
+      <c r="J6" t="n">
+        <v>147.59</v>
+      </c>
+      <c r="K6" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>83482</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="N6" t="n">
+        <v>145</v>
+      </c>
+      <c r="O6" t="n">
+        <v>152</v>
+      </c>
+      <c r="P6" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R6" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="S6" t="n">
+        <v>116.49</v>
+      </c>
+      <c r="T6" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>137.97</v>
+      </c>
+      <c r="V6" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>733</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.987</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0799</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>level104</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>images\level104.jpg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>161</v>
+      </c>
+      <c r="E7" t="n">
+        <v>164</v>
+      </c>
+      <c r="F7" t="n">
+        <v>165</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>73.15000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>163.48</v>
+      </c>
+      <c r="K7" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="L7" t="n">
+        <v>76994</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="N7" t="n">
+        <v>193</v>
+      </c>
+      <c r="O7" t="n">
+        <v>188</v>
+      </c>
+      <c r="P7" t="n">
+        <v>178</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="S7" t="n">
+        <v>101.66</v>
+      </c>
+      <c r="T7" t="n">
+        <v>149.37</v>
+      </c>
+      <c r="U7" t="n">
+        <v>173.05</v>
+      </c>
+      <c r="V7" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>899</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.572</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>level105</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>images\level105.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>129</v>
+      </c>
+      <c r="E8" t="n">
+        <v>135</v>
+      </c>
+      <c r="F8" t="n">
+        <v>148</v>
+      </c>
+      <c r="G8" t="n">
+        <v>57.84</v>
+      </c>
+      <c r="H8" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J8" t="n">
+        <v>135.06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>93218</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="N8" t="n">
+        <v>153</v>
+      </c>
+      <c r="O8" t="n">
+        <v>148</v>
+      </c>
+      <c r="P8" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R8" t="n">
+        <v>40.17</v>
+      </c>
+      <c r="S8" t="n">
+        <v>99.87</v>
+      </c>
+      <c r="T8" t="n">
+        <v>157.99</v>
+      </c>
+      <c r="U8" t="n">
+        <v>123.55</v>
+      </c>
+      <c r="V8" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.804</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>331</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.012</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0701</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>level106</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>images\level106.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>195</v>
+      </c>
+      <c r="E9" t="n">
+        <v>193</v>
+      </c>
+      <c r="F9" t="n">
+        <v>179</v>
+      </c>
+      <c r="G9" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="H9" t="n">
+        <v>56.43</v>
+      </c>
+      <c r="I9" t="n">
+        <v>56.53</v>
+      </c>
+      <c r="J9" t="n">
+        <v>192.68</v>
+      </c>
+      <c r="K9" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="L9" t="n">
+        <v>107070</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="N9" t="n">
+        <v>180</v>
+      </c>
+      <c r="O9" t="n">
+        <v>175</v>
+      </c>
+      <c r="P9" t="n">
+        <v>165</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>63.28</v>
+      </c>
+      <c r="S9" t="n">
+        <v>138.77</v>
+      </c>
+      <c r="T9" t="n">
+        <v>188.69</v>
+      </c>
+      <c r="U9" t="n">
+        <v>194.04</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.925</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>710</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>52.24</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.441000000000001</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0944</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>level107</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>images\level107.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>222</v>
+      </c>
+      <c r="E10" t="n">
+        <v>210</v>
+      </c>
+      <c r="F10" t="n">
+        <v>218</v>
+      </c>
+      <c r="G10" t="n">
+        <v>46.53</v>
+      </c>
+      <c r="H10" t="n">
+        <v>42.71</v>
+      </c>
+      <c r="I10" t="n">
+        <v>59.58</v>
+      </c>
+      <c r="J10" t="n">
+        <v>214.82</v>
+      </c>
+      <c r="K10" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="L10" t="n">
+        <v>65344</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="N10" t="n">
+        <v>237</v>
+      </c>
+      <c r="O10" t="n">
+        <v>224</v>
+      </c>
+      <c r="P10" t="n">
+        <v>247</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>118.12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>206.83</v>
+      </c>
+      <c r="U10" t="n">
+        <v>219.41</v>
+      </c>
+      <c r="V10" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.468</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>84.36</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.199</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>level109</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>images\level109.jpg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>201</v>
+      </c>
+      <c r="F11" t="n">
+        <v>150</v>
+      </c>
+      <c r="G11" t="n">
+        <v>46.87</v>
+      </c>
+      <c r="H11" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="I11" t="n">
+        <v>62.13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>195.31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150781</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>213</v>
+      </c>
+      <c r="O11" t="n">
+        <v>235</v>
+      </c>
+      <c r="P11" t="n">
+        <v>235</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="R11" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="S11" t="n">
+        <v>117.54</v>
+      </c>
+      <c r="T11" t="n">
+        <v>198.65</v>
+      </c>
+      <c r="U11" t="n">
+        <v>194.91</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.891</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2038</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10.585</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.1059</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>images\level2.png</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>157</v>
+      </c>
+      <c r="E12" t="n">
+        <v>172</v>
+      </c>
+      <c r="F12" t="n">
+        <v>177</v>
+      </c>
+      <c r="G12" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>49.09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>168.27</v>
+      </c>
+      <c r="K12" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="L12" t="n">
+        <v>256</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>109</v>
+      </c>
+      <c r="O12" t="n">
+        <v>135</v>
+      </c>
+      <c r="P12" t="n">
+        <v>151</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="S12" t="n">
+        <v>65</v>
+      </c>
+      <c r="T12" t="n">
+        <v>117.21</v>
+      </c>
+      <c r="U12" t="n">
+        <v>181.71</v>
+      </c>
+      <c r="V12" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.189</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>695</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4.668</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0467</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>level27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>images\level27.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>158</v>
+      </c>
+      <c r="E13" t="n">
+        <v>129</v>
+      </c>
+      <c r="F13" t="n">
+        <v>159</v>
+      </c>
+      <c r="G13" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>141.28</v>
+      </c>
+      <c r="K13" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="L13" t="n">
+        <v>152972</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>213</v>
+      </c>
+      <c r="O13" t="n">
+        <v>178</v>
+      </c>
+      <c r="P13" t="n">
+        <v>187</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R13" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>100.73</v>
+      </c>
+      <c r="T13" t="n">
+        <v>133.65</v>
+      </c>
+      <c r="U13" t="n">
+        <v>134.92</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.241</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2415</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.244</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.0824</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>level28</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>images\level28.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>156</v>
+      </c>
+      <c r="E14" t="n">
+        <v>136</v>
+      </c>
+      <c r="F14" t="n">
+        <v>113</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="H14" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="I14" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="K14" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="L14" t="n">
+        <v>195738</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="N14" t="n">
+        <v>220</v>
+      </c>
+      <c r="O14" t="n">
+        <v>206</v>
+      </c>
+      <c r="P14" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R14" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="S14" t="n">
+        <v>84.48</v>
+      </c>
+      <c r="T14" t="n">
+        <v>145.59</v>
+      </c>
+      <c r="U14" t="n">
+        <v>133</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.589</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1597</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.677</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.0968</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>level29</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>images\level29.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>136</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99</v>
+      </c>
+      <c r="F15" t="n">
+        <v>71</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="H15" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="J15" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="K15" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>195639</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="N15" t="n">
+        <v>94</v>
+      </c>
+      <c r="O15" t="n">
+        <v>65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R15" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>90.89</v>
+      </c>
+      <c r="T15" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="U15" t="n">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="V15" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.334</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1444</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.022</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.08019999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>level3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>images\level3.png</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>148</v>
+      </c>
+      <c r="E16" t="n">
+        <v>134</v>
+      </c>
+      <c r="F16" t="n">
+        <v>121</v>
+      </c>
+      <c r="G16" t="n">
+        <v>65.06</v>
+      </c>
+      <c r="H16" t="n">
+        <v>59.51</v>
+      </c>
+      <c r="I16" t="n">
+        <v>62.03</v>
+      </c>
+      <c r="J16" t="n">
+        <v>137.33</v>
+      </c>
+      <c r="K16" t="n">
+        <v>57.86</v>
+      </c>
+      <c r="L16" t="n">
+        <v>223</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>81</v>
+      </c>
+      <c r="O16" t="n">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="S16" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>145.45</v>
+      </c>
+      <c r="U16" t="n">
+        <v>129.56</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>57.86</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>792</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5.506</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.0551</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>level30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>images\level30.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>130</v>
+      </c>
+      <c r="E17" t="n">
+        <v>112</v>
+      </c>
+      <c r="F17" t="n">
+        <v>89</v>
+      </c>
+      <c r="G17" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="H17" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>115.37</v>
+      </c>
+      <c r="K17" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="L17" t="n">
+        <v>157299</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N17" t="n">
+        <v>128</v>
+      </c>
+      <c r="O17" t="n">
+        <v>113</v>
+      </c>
+      <c r="P17" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>81.27</v>
+      </c>
+      <c r="T17" t="n">
+        <v>127.89</v>
+      </c>
+      <c r="U17" t="n">
+        <v>113.37</v>
+      </c>
+      <c r="V17" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.433</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1090</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.693</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.08690000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>level3001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>坏</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>images\level3001.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>154</v>
+      </c>
+      <c r="E18" t="n">
+        <v>181</v>
+      </c>
+      <c r="F18" t="n">
+        <v>211</v>
+      </c>
+      <c r="G18" t="n">
+        <v>98.15000000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="J18" t="n">
+        <v>176.66</v>
+      </c>
+      <c r="K18" t="n">
+        <v>79.04000000000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>138019</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="N18" t="n">
+        <v>43</v>
+      </c>
+      <c r="O18" t="n">
+        <v>129</v>
+      </c>
+      <c r="P18" t="n">
+        <v>213</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R18" t="n">
+        <v>68.13</v>
+      </c>
+      <c r="S18" t="n">
+        <v>177.19</v>
+      </c>
+      <c r="T18" t="n">
+        <v>140.89</v>
+      </c>
+      <c r="U18" t="n">
+        <v>196.28</v>
+      </c>
+      <c r="V18" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.168</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>79.04000000000001</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>767</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>49.36</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.0668</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>level3002</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>images\level3002.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>237</v>
+      </c>
+      <c r="E19" t="n">
+        <v>186</v>
+      </c>
+      <c r="F19" t="n">
+        <v>141</v>
+      </c>
+      <c r="G19" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="H19" t="n">
+        <v>43.89</v>
+      </c>
+      <c r="I19" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="J19" t="n">
+        <v>196.98</v>
+      </c>
+      <c r="K19" t="n">
+        <v>38.26</v>
+      </c>
+      <c r="L19" t="n">
+        <v>153249</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="N19" t="n">
+        <v>177</v>
+      </c>
+      <c r="O19" t="n">
+        <v>99</v>
+      </c>
+      <c r="P19" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R19" t="n">
+        <v>38.23</v>
+      </c>
+      <c r="S19" t="n">
+        <v>94.37</v>
+      </c>
+      <c r="T19" t="n">
+        <v>182.42</v>
+      </c>
+      <c r="U19" t="n">
+        <v>205.74</v>
+      </c>
+      <c r="V19" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6.614</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>38.26</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1191</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.648</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.0665</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>level3003</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>images\level3003.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>209</v>
+      </c>
+      <c r="E20" t="n">
+        <v>165</v>
+      </c>
+      <c r="F20" t="n">
+        <v>127</v>
+      </c>
+      <c r="G20" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="I20" t="n">
+        <v>64.27</v>
+      </c>
+      <c r="J20" t="n">
+        <v>174.42</v>
+      </c>
+      <c r="K20" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>130200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="N20" t="n">
+        <v>234</v>
+      </c>
+      <c r="O20" t="n">
+        <v>207</v>
+      </c>
+      <c r="P20" t="n">
+        <v>178</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R20" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="S20" t="n">
+        <v>98.06</v>
+      </c>
+      <c r="T20" t="n">
+        <v>154.32</v>
+      </c>
+      <c r="U20" t="n">
+        <v>180.89</v>
+      </c>
+      <c r="V20" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.244</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>518</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.0553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>level3004</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>images\level3004.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>238</v>
+      </c>
+      <c r="E21" t="n">
+        <v>190</v>
+      </c>
+      <c r="F21" t="n">
+        <v>99</v>
+      </c>
+      <c r="G21" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="I21" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="J21" t="n">
+        <v>194.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>158120</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="N21" t="n">
+        <v>245</v>
+      </c>
+      <c r="O21" t="n">
+        <v>234</v>
+      </c>
+      <c r="P21" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R21" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>98.31</v>
+      </c>
+      <c r="T21" t="n">
+        <v>180.31</v>
+      </c>
+      <c r="U21" t="n">
+        <v>207.43</v>
+      </c>
+      <c r="V21" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6.908</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1056</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>60.31</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.0801</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>level3005</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>images\level3005.jpg</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>146</v>
+      </c>
+      <c r="E22" t="n">
+        <v>84</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45</v>
+      </c>
+      <c r="G22" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39.69</v>
+      </c>
+      <c r="I22" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="L22" t="n">
+        <v>167165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>164</v>
+      </c>
+      <c r="O22" t="n">
+        <v>93</v>
+      </c>
+      <c r="P22" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="S22" t="n">
+        <v>76.14</v>
+      </c>
+      <c r="T22" t="n">
+        <v>105.76</v>
+      </c>
+      <c r="U22" t="n">
+        <v>91.84999999999999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.165</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1408</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.07480000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>level3006</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>images\level3006.jpg</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>184</v>
+      </c>
+      <c r="E23" t="n">
         <v>173</v>
       </c>
-      <c r="I2" t="n">
-        <v>155</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="F23" t="n">
+        <v>153</v>
+      </c>
+      <c r="G23" t="n">
+        <v>65.31999999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>61.59</v>
+      </c>
+      <c r="I23" t="n">
+        <v>67.34999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>174.16</v>
+      </c>
+      <c r="K23" t="n">
+        <v>60.11</v>
+      </c>
+      <c r="L23" t="n">
+        <v>248042</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="N23" t="n">
+        <v>214</v>
+      </c>
+      <c r="O23" t="n">
+        <v>218</v>
+      </c>
+      <c r="P23" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R23" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="S23" t="n">
+        <v>163.72</v>
+      </c>
+      <c r="T23" t="n">
+        <v>143.89</v>
+      </c>
+      <c r="U23" t="n">
+        <v>189.31</v>
+      </c>
+      <c r="V23" t="n">
+        <v>45.42</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7.316</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>60.11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1752</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13.075</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.1307</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>level3008</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>好</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>images\level3008.jpg</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>166</v>
+      </c>
+      <c r="E24" t="n">
+        <v>121</v>
+      </c>
+      <c r="F24" t="n">
+        <v>65</v>
+      </c>
+      <c r="G24" t="n">
+        <v>56.97</v>
+      </c>
+      <c r="H24" t="n">
+        <v>52.87</v>
+      </c>
+      <c r="I24" t="n">
+        <v>52.59</v>
+      </c>
+      <c r="J24" t="n">
+        <v>128.97</v>
+      </c>
+      <c r="K24" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>292216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="N24" t="n">
+        <v>193</v>
+      </c>
+      <c r="O24" t="n">
+        <v>133</v>
+      </c>
+      <c r="P24" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R24" t="n">
+        <v>70.44</v>
+      </c>
+      <c r="S24" t="n">
+        <v>112.38</v>
+      </c>
+      <c r="T24" t="n">
+        <v>130.18</v>
+      </c>
+      <c r="U24" t="n">
+        <v>127.58</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7.569</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1967</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13.188</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.1319</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>level3009</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>images\level3009.jpg</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>121</v>
+      </c>
+      <c r="E25" t="n">
+        <v>113</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>103.04</v>
+      </c>
+      <c r="H25" t="n">
+        <v>78.63</v>
+      </c>
+      <c r="I25" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="J25" t="n">
+        <v>113.92</v>
+      </c>
+      <c r="K25" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="L25" t="n">
+        <v>255201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="N25" t="n">
+        <v>213</v>
+      </c>
+      <c r="O25" t="n">
+        <v>209</v>
+      </c>
+      <c r="P25" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="R25" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>178.04</v>
+      </c>
+      <c r="U25" t="n">
+        <v>71.11</v>
+      </c>
+      <c r="V25" t="n">
+        <v>106.94</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.009</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>628</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>7.218</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.0722</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>level31</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>images\level31.jpg</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>188</v>
+      </c>
+      <c r="E26" t="n">
+        <v>145</v>
+      </c>
+      <c r="F26" t="n">
+        <v>104</v>
+      </c>
+      <c r="G26" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="H26" t="n">
+        <v>49.54</v>
+      </c>
+      <c r="I26" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="J26" t="n">
+        <v>153.66</v>
+      </c>
+      <c r="K26" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="L26" t="n">
+        <v>81276</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="N26" t="n">
+        <v>126</v>
+      </c>
+      <c r="O26" t="n">
+        <v>84</v>
+      </c>
+      <c r="P26" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R26" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="S26" t="n">
+        <v>76.08</v>
+      </c>
+      <c r="T26" t="n">
+        <v>171.96</v>
+      </c>
+      <c r="U26" t="n">
+        <v>151.04</v>
+      </c>
+      <c r="V26" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>756</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.06569999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>level3101</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>images\level3101.jpg</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>174</v>
+      </c>
+      <c r="E27" t="n">
+        <v>187</v>
+      </c>
+      <c r="F27" t="n">
+        <v>190</v>
+      </c>
+      <c r="G27" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="J27" t="n">
+        <v>183.95</v>
+      </c>
+      <c r="K27" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="L27" t="n">
+        <v>87538</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="N27" t="n">
+        <v>212</v>
+      </c>
+      <c r="O27" t="n">
+        <v>214</v>
+      </c>
+      <c r="P27" t="n">
+        <v>210</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R27" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="S27" t="n">
+        <v>91.34</v>
+      </c>
+      <c r="T27" t="n">
+        <v>190.02</v>
+      </c>
+      <c r="U27" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.818</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>39.17</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>6.514</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>level3102</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>images\level3102.jpg</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>144</v>
+      </c>
+      <c r="E28" t="n">
+        <v>117</v>
+      </c>
+      <c r="F28" t="n">
+        <v>70</v>
+      </c>
+      <c r="G28" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>55.41</v>
+      </c>
+      <c r="I28" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>120.47</v>
+      </c>
+      <c r="K28" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="L28" t="n">
+        <v>208652</v>
+      </c>
+      <c r="M28" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="N28" t="n">
+        <v>162</v>
+      </c>
+      <c r="O28" t="n">
+        <v>140</v>
+      </c>
+      <c r="P28" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="R28" t="n">
+        <v>64.13</v>
+      </c>
+      <c r="S28" t="n">
+        <v>108.68</v>
+      </c>
+      <c r="T28" t="n">
+        <v>111.46</v>
+      </c>
+      <c r="U28" t="n">
+        <v>124.67</v>
+      </c>
+      <c r="V28" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7.511</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1523</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11.608</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.1161</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>level3103</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>images\level3103.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>165</v>
+      </c>
+      <c r="E29" t="n">
+        <v>167</v>
+      </c>
+      <c r="F29" t="n">
+        <v>147</v>
+      </c>
+      <c r="G29" t="n">
+        <v>53.21</v>
+      </c>
+      <c r="H29" t="n">
+        <v>45.68</v>
+      </c>
+      <c r="I29" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="J29" t="n">
+        <v>164.69</v>
+      </c>
+      <c r="K29" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="L29" t="n">
+        <v>237676</v>
+      </c>
+      <c r="M29" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="N29" t="n">
+        <v>141</v>
+      </c>
+      <c r="O29" t="n">
+        <v>157</v>
+      </c>
+      <c r="P29" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="R29" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>101.45</v>
+      </c>
+      <c r="T29" t="n">
+        <v>171.83</v>
+      </c>
+      <c r="U29" t="n">
+        <v>165.28</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7.363</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1333</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7.356</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.0736</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>level32</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>images\level32.jpg</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>196</v>
+      </c>
+      <c r="E30" t="n">
+        <v>189</v>
+      </c>
+      <c r="F30" t="n">
+        <v>170</v>
+      </c>
+      <c r="G30" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="H30" t="n">
+        <v>37.56</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>189.57</v>
+      </c>
+      <c r="K30" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="L30" t="n">
+        <v>139200</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="N30" t="n">
+        <v>176</v>
+      </c>
+      <c r="O30" t="n">
+        <v>183</v>
+      </c>
+      <c r="P30" t="n">
+        <v>168</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R30" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="S30" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="T30" t="n">
+        <v>183.59</v>
+      </c>
+      <c r="U30" t="n">
+        <v>194.16</v>
+      </c>
+      <c r="V30" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="X30" t="n">
+        <v>6.843</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>751</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>46.43</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10.467</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.1047</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>level33</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>images\level33.jpg</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>179</v>
+      </c>
+      <c r="E31" t="n">
+        <v>179</v>
+      </c>
+      <c r="F31" t="n">
+        <v>170</v>
+      </c>
+      <c r="G31" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="I31" t="n">
+        <v>44.12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>178.39</v>
+      </c>
+      <c r="K31" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="L31" t="n">
+        <v>162019</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="N31" t="n">
+        <v>114</v>
+      </c>
+      <c r="O31" t="n">
+        <v>123</v>
+      </c>
+      <c r="P31" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R31" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="T31" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7.198</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>743</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>5.481</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.0548</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>level34</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>images\level34.jpg</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>158</v>
+      </c>
+      <c r="E32" t="n">
+        <v>154</v>
+      </c>
+      <c r="F32" t="n">
+        <v>121</v>
+      </c>
+      <c r="G32" t="n">
+        <v>53.46</v>
+      </c>
+      <c r="H32" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="J32" t="n">
+        <v>152.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>217816</v>
+      </c>
+      <c r="M32" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>89</v>
+      </c>
+      <c r="O32" t="n">
+        <v>87</v>
+      </c>
+      <c r="P32" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="S32" t="n">
+        <v>93.87</v>
+      </c>
+      <c r="T32" t="n">
+        <v>146.33</v>
+      </c>
+      <c r="U32" t="n">
+        <v>157.41</v>
+      </c>
+      <c r="V32" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7.545</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1708</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12.466</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.1247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>level35</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>images\level35.jpg</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>144</v>
+      </c>
+      <c r="E33" t="n">
+        <v>151</v>
+      </c>
+      <c r="F33" t="n">
+        <v>121</v>
+      </c>
+      <c r="G33" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="I33" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="J33" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="L33" t="n">
+        <v>188106</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="N33" t="n">
+        <v>187</v>
+      </c>
+      <c r="O33" t="n">
         <v>175</v>
       </c>
-      <c r="K2" t="n">
-        <v>68.83</v>
-      </c>
-      <c r="L2" t="n">
-        <v>62.98</v>
-      </c>
-      <c r="M2" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>163.42</v>
-      </c>
-      <c r="O2" t="n">
-        <v>57.73</v>
-      </c>
-      <c r="P2" t="n">
-        <v>256</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="P33" t="n">
+        <v>144</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R33" t="n">
+        <v>42.85</v>
+      </c>
+      <c r="S33" t="n">
+        <v>90.93000000000001</v>
+      </c>
+      <c r="T33" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="U33" t="n">
+        <v>141.32</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7.122</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7.606</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.0761</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>level36</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>images\level36.jpg</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>130</v>
+      </c>
+      <c r="E34" t="n">
+        <v>119</v>
+      </c>
+      <c r="F34" t="n">
+        <v>112</v>
+      </c>
+      <c r="G34" t="n">
+        <v>53.38</v>
+      </c>
+      <c r="H34" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="I34" t="n">
+        <v>45.34</v>
+      </c>
+      <c r="J34" t="n">
+        <v>121.89</v>
+      </c>
+      <c r="K34" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="L34" t="n">
+        <v>186718</v>
+      </c>
+      <c r="M34" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="N34" t="n">
+        <v>131</v>
+      </c>
+      <c r="O34" t="n">
+        <v>128</v>
+      </c>
+      <c r="P34" t="n">
+        <v>126</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>49.39</v>
+      </c>
+      <c r="S34" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="T34" t="n">
+        <v>147.83</v>
+      </c>
+      <c r="U34" t="n">
+        <v>113.94</v>
+      </c>
+      <c r="V34" t="n">
+        <v>33.89</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7.449</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>9.917999999999999</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.0992</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>level37</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>images\level37.jpg</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>166</v>
+      </c>
+      <c r="E35" t="n">
+        <v>141</v>
+      </c>
+      <c r="F35" t="n">
+        <v>111</v>
+      </c>
+      <c r="G35" t="n">
+        <v>50.59</v>
+      </c>
+      <c r="H35" t="n">
+        <v>49.03</v>
+      </c>
+      <c r="I35" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="J35" t="n">
+        <v>145.24</v>
+      </c>
+      <c r="K35" t="n">
+        <v>47.65</v>
+      </c>
+      <c r="L35" t="n">
+        <v>146465</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="N35" t="n">
+        <v>177</v>
+      </c>
+      <c r="O35" t="n">
+        <v>150</v>
+      </c>
+      <c r="P35" t="n">
+        <v>115</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R35" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="S35" t="n">
+        <v>91.53</v>
+      </c>
+      <c r="T35" t="n">
+        <v>155.99</v>
+      </c>
+      <c r="U35" t="n">
+        <v>143.62</v>
+      </c>
+      <c r="V35" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="X35" t="n">
+        <v>7.463</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>47.65</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1046</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.069000000000001</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.08069999999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>level38</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>images\level38.jpg</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>131</v>
+      </c>
+      <c r="E36" t="n">
+        <v>109</v>
+      </c>
+      <c r="F36" t="n">
+        <v>86</v>
+      </c>
+      <c r="G36" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="I36" t="n">
+        <v>44.91</v>
+      </c>
+      <c r="J36" t="n">
+        <v>113.28</v>
+      </c>
+      <c r="K36" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="L36" t="n">
+        <v>169401</v>
+      </c>
+      <c r="M36" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="N36" t="n">
+        <v>84</v>
+      </c>
+      <c r="O36" t="n">
+        <v>65</v>
+      </c>
+      <c r="P36" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>60.51</v>
+      </c>
+      <c r="S36" t="n">
+        <v>106.53</v>
+      </c>
+      <c r="T36" t="n">
+        <v>147.86</v>
+      </c>
+      <c r="U36" t="n">
+        <v>94.78</v>
+      </c>
+      <c r="V36" t="n">
+        <v>53.08</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="X36" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1553</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10.495</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>level39</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>images\level39.jpg</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>208</v>
+      </c>
+      <c r="E37" t="n">
+        <v>182</v>
+      </c>
+      <c r="F37" t="n">
+        <v>142</v>
+      </c>
+      <c r="G37" t="n">
+        <v>44.42</v>
+      </c>
+      <c r="H37" t="n">
+        <v>51.61</v>
+      </c>
+      <c r="I37" t="n">
+        <v>63</v>
+      </c>
+      <c r="J37" t="n">
+        <v>185.86</v>
+      </c>
+      <c r="K37" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="L37" t="n">
+        <v>159686</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="N37" t="n">
+        <v>239</v>
+      </c>
+      <c r="O37" t="n">
+        <v>225</v>
+      </c>
+      <c r="P37" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R37" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="S37" t="n">
+        <v>93.64</v>
+      </c>
+      <c r="T37" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="U37" t="n">
+        <v>197.95</v>
+      </c>
+      <c r="V37" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X37" t="n">
+        <v>7.094</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>7.745</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.0775</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>level40</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>images\level40.jpg</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>146</v>
+      </c>
+      <c r="E38" t="n">
+        <v>122</v>
+      </c>
+      <c r="F38" t="n">
+        <v>92</v>
+      </c>
+      <c r="G38" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>51.59</v>
+      </c>
+      <c r="I38" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>126.28</v>
+      </c>
+      <c r="K38" t="n">
+        <v>50.01</v>
+      </c>
+      <c r="L38" t="n">
+        <v>123312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="N38" t="n">
+        <v>160</v>
+      </c>
+      <c r="O38" t="n">
+        <v>131</v>
+      </c>
+      <c r="P38" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R38" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="S38" t="n">
+        <v>80.41</v>
+      </c>
+      <c r="T38" t="n">
+        <v>151.45</v>
+      </c>
+      <c r="U38" t="n">
+        <v>112.85</v>
+      </c>
+      <c r="V38" t="n">
+        <v>38.61</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="X38" t="n">
+        <v>7.486</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>50.01</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1097</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>6.242</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.0624</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>level41</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>images\level41.jpg</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>179</v>
+      </c>
+      <c r="E39" t="n">
+        <v>102</v>
+      </c>
+      <c r="F39" t="n">
+        <v>59</v>
+      </c>
+      <c r="G39" t="n">
+        <v>57.67</v>
+      </c>
+      <c r="H39" t="n">
+        <v>59.33</v>
+      </c>
+      <c r="I39" t="n">
+        <v>52.28</v>
+      </c>
+      <c r="J39" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="L39" t="n">
+        <v>273362</v>
+      </c>
+      <c r="M39" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="N39" t="n">
+        <v>231</v>
+      </c>
+      <c r="O39" t="n">
+        <v>180</v>
+      </c>
+      <c r="P39" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R39" t="n">
+        <v>49.76</v>
+      </c>
+      <c r="S39" t="n">
+        <v>87.41</v>
+      </c>
+      <c r="T39" t="n">
+        <v>147.23</v>
+      </c>
+      <c r="U39" t="n">
+        <v>107.03</v>
+      </c>
+      <c r="V39" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="X39" t="n">
+        <v>7.677</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>566</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>7.692</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.0769</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>level42</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>images\level42.jpg</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>225</v>
+      </c>
+      <c r="E40" t="n">
+        <v>212</v>
+      </c>
+      <c r="F40" t="n">
+        <v>196</v>
+      </c>
+      <c r="G40" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="H40" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>52.89</v>
+      </c>
+      <c r="J40" t="n">
+        <v>214.46</v>
+      </c>
+      <c r="K40" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="L40" t="n">
+        <v>151833</v>
+      </c>
+      <c r="M40" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>205</v>
+      </c>
+      <c r="O40" t="n">
+        <v>181</v>
+      </c>
+      <c r="P40" t="n">
+        <v>166</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R40" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="S40" t="n">
+        <v>132.61</v>
+      </c>
+      <c r="T40" t="n">
+        <v>212.07</v>
+      </c>
+      <c r="U40" t="n">
+        <v>216.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5.407</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1536</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>77.89</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>9.958</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>level43</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>images\level43.jpg</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>161</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>161</v>
+      </c>
+      <c r="G41" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="I41" t="n">
+        <v>53.05</v>
+      </c>
+      <c r="J41" t="n">
+        <v>160.01</v>
+      </c>
+      <c r="K41" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="L41" t="n">
+        <v>108339</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="N41" t="n">
+        <v>68</v>
+      </c>
+      <c r="O41" t="n">
+        <v>66</v>
+      </c>
+      <c r="P41" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R41" t="n">
+        <v>41.59</v>
+      </c>
+      <c r="S41" t="n">
+        <v>98.51000000000001</v>
+      </c>
+      <c r="T41" t="n">
+        <v>175.33</v>
+      </c>
+      <c r="U41" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="V41" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="X41" t="n">
+        <v>7.327</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>861</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>7.189</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.07190000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>level44</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>images\level44.jpg</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>184</v>
+      </c>
+      <c r="E42" t="n">
+        <v>140</v>
+      </c>
+      <c r="F42" t="n">
+        <v>111</v>
+      </c>
+      <c r="G42" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="H42" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>150.46</v>
+      </c>
+      <c r="K42" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="L42" t="n">
+        <v>206785</v>
+      </c>
+      <c r="M42" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="N42" t="n">
+        <v>185</v>
+      </c>
+      <c r="O42" t="n">
+        <v>117</v>
+      </c>
+      <c r="P42" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R42" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="S42" t="n">
+        <v>116.76</v>
+      </c>
+      <c r="T42" t="n">
+        <v>153.04</v>
+      </c>
+      <c r="U42" t="n">
+        <v>153.23</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="X42" t="n">
+        <v>7.544</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1082</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>7.813</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.0781</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>level45</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>images\level45.jpg</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>154</v>
+      </c>
+      <c r="F43" t="n">
+        <v>120</v>
+      </c>
+      <c r="G43" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="H43" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="I43" t="n">
+        <v>60.24</v>
+      </c>
+      <c r="J43" t="n">
+        <v>163.06</v>
+      </c>
+      <c r="K43" t="n">
+        <v>58.48</v>
+      </c>
+      <c r="L43" t="n">
+        <v>188662</v>
+      </c>
+      <c r="M43" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="N43" t="n">
+        <v>204</v>
+      </c>
+      <c r="O43" t="n">
+        <v>151</v>
+      </c>
+      <c r="P43" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R43" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="T43" t="n">
+        <v>147</v>
+      </c>
+      <c r="U43" t="n">
+        <v>177.28</v>
+      </c>
+      <c r="V43" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="X43" t="n">
+        <v>7.426</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>58.48</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1013</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.041</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.09039999999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>level46</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>images\level46.jpg</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>178</v>
+      </c>
+      <c r="E44" t="n">
+        <v>132</v>
+      </c>
+      <c r="F44" t="n">
+        <v>99</v>
+      </c>
+      <c r="G44" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="H44" t="n">
+        <v>59.42</v>
+      </c>
+      <c r="I44" t="n">
+        <v>52.15</v>
+      </c>
+      <c r="J44" t="n">
+        <v>142.37</v>
+      </c>
+      <c r="K44" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="L44" t="n">
+        <v>220203</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="N44" t="n">
+        <v>185</v>
+      </c>
+      <c r="O44" t="n">
+        <v>110</v>
+      </c>
+      <c r="P44" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R44" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="S44" t="n">
+        <v>103.48</v>
+      </c>
+      <c r="T44" t="n">
+        <v>143.72</v>
+      </c>
+      <c r="U44" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="X44" t="n">
+        <v>7.544</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1639</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>8.744999999999999</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.08740000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>level47</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>images\level47.jpg</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>125</v>
+      </c>
+      <c r="E45" t="n">
+        <v>61</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28</v>
+      </c>
+      <c r="G45" t="n">
+        <v>66.20999999999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="I45" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="J45" t="n">
+        <v>76.88</v>
+      </c>
+      <c r="K45" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="L45" t="n">
+        <v>163992</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="N45" t="n">
+        <v>156</v>
+      </c>
+      <c r="O45" t="n">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R45" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="S45" t="n">
+        <v>79.92</v>
+      </c>
+      <c r="T45" t="n">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="U45" t="n">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="X45" t="n">
+        <v>7.396</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1067</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>6.547</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.0655</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>level53</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>images\level53.jpg</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>222</v>
+      </c>
+      <c r="E46" t="n">
+        <v>213</v>
+      </c>
+      <c r="F46" t="n">
+        <v>187</v>
+      </c>
+      <c r="G46" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="H46" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="I46" t="n">
+        <v>51.94</v>
+      </c>
+      <c r="J46" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>46.65</v>
+      </c>
+      <c r="L46" t="n">
+        <v>85275</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>250</v>
+      </c>
+      <c r="O46" t="n">
+        <v>236</v>
+      </c>
+      <c r="P46" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R46" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="S46" t="n">
+        <v>136.04</v>
+      </c>
+      <c r="T46" t="n">
+        <v>186.86</v>
+      </c>
+      <c r="U46" t="n">
+        <v>230.51</v>
+      </c>
+      <c r="V46" t="n">
+        <v>43.65</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.249</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>46.65</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>485</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>72.87</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.0674</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>level54</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>images\level54.jpg</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>220</v>
+      </c>
+      <c r="E47" t="n">
+        <v>202</v>
+      </c>
+      <c r="F47" t="n">
+        <v>162</v>
+      </c>
+      <c r="G47" t="n">
+        <v>51.82</v>
+      </c>
+      <c r="H47" t="n">
+        <v>48.91</v>
+      </c>
+      <c r="I47" t="n">
+        <v>61.18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>203.07</v>
+      </c>
+      <c r="K47" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>83820</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="N47" t="n">
+        <v>252</v>
+      </c>
+      <c r="O47" t="n">
+        <v>234</v>
+      </c>
+      <c r="P47" t="n">
         <v>207</v>
       </c>
-      <c r="S2" t="n">
+      <c r="Q47" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R47" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="S47" t="n">
+        <v>119.49</v>
+      </c>
+      <c r="T47" t="n">
+        <v>174.26</v>
+      </c>
+      <c r="U47" t="n">
+        <v>222.71</v>
+      </c>
+      <c r="V47" t="n">
+        <v>48.45</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="X47" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>542</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>63.83</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.0726</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>level55</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>images\level55.jpg</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>214</v>
+      </c>
+      <c r="E48" t="n">
+        <v>196</v>
+      </c>
+      <c r="F48" t="n">
+        <v>169</v>
+      </c>
+      <c r="G48" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="H48" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="I48" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="J48" t="n">
+        <v>198.54</v>
+      </c>
+      <c r="K48" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="L48" t="n">
+        <v>104296</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="N48" t="n">
+        <v>129</v>
+      </c>
+      <c r="O48" t="n">
+        <v>104</v>
+      </c>
+      <c r="P48" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="R48" t="n">
+        <v>38.26</v>
+      </c>
+      <c r="S48" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="T48" t="n">
+        <v>160.66</v>
+      </c>
+      <c r="U48" t="n">
+        <v>218.64</v>
+      </c>
+      <c r="V48" t="n">
+        <v>57.98</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="X48" t="n">
+        <v>5.201</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>725</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>58.41</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.0756</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>level56</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>images\level56.jpg</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>211</v>
+      </c>
+      <c r="E49" t="n">
+        <v>194</v>
+      </c>
+      <c r="F49" t="n">
+        <v>164</v>
+      </c>
+      <c r="G49" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="H49" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="I49" t="n">
+        <v>58.06</v>
+      </c>
+      <c r="J49" t="n">
+        <v>196.39</v>
+      </c>
+      <c r="K49" t="n">
+        <v>47.22</v>
+      </c>
+      <c r="L49" t="n">
+        <v>94737</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="N49" t="n">
+        <v>241</v>
+      </c>
+      <c r="O49" t="n">
+        <v>226</v>
+      </c>
+      <c r="P49" t="n">
+        <v>204</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="R49" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="S49" t="n">
+        <v>87.37</v>
+      </c>
+      <c r="T49" t="n">
+        <v>168.09</v>
+      </c>
+      <c r="U49" t="n">
+        <v>216.78</v>
+      </c>
+      <c r="V49" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5.171</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>47.22</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>934</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>55.69</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.439</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.07439999999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>level57</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>images\level57.jpg</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>215</v>
+      </c>
+      <c r="E50" t="n">
+        <v>201</v>
+      </c>
+      <c r="F50" t="n">
+        <v>178</v>
+      </c>
+      <c r="G50" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="H50" t="n">
+        <v>44.91</v>
+      </c>
+      <c r="I50" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>203.02</v>
+      </c>
+      <c r="K50" t="n">
+        <v>43.02</v>
+      </c>
+      <c r="L50" t="n">
+        <v>108484</v>
+      </c>
+      <c r="M50" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="N50" t="n">
+        <v>175</v>
+      </c>
+      <c r="O50" t="n">
+        <v>134</v>
+      </c>
+      <c r="P50" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R50" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="S50" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="T50" t="n">
+        <v>180.93</v>
+      </c>
+      <c r="U50" t="n">
+        <v>217.59</v>
+      </c>
+      <c r="V50" t="n">
+        <v>36.66</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5.616</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>43.02</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>743</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>60.88</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>7.472</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.0747</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>level58</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>images\level58.jpg</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>214</v>
+      </c>
+      <c r="E51" t="n">
+        <v>202</v>
+      </c>
+      <c r="F51" t="n">
+        <v>179</v>
+      </c>
+      <c r="G51" t="n">
+        <v>50.66</v>
+      </c>
+      <c r="H51" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="I51" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="J51" t="n">
+        <v>203.49</v>
+      </c>
+      <c r="K51" t="n">
+        <v>44.81</v>
+      </c>
+      <c r="L51" t="n">
+        <v>147857</v>
+      </c>
+      <c r="M51" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="N51" t="n">
+        <v>246</v>
+      </c>
+      <c r="O51" t="n">
+        <v>231</v>
+      </c>
+      <c r="P51" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="R51" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="S51" t="n">
+        <v>104.72</v>
+      </c>
+      <c r="T51" t="n">
+        <v>176.57</v>
+      </c>
+      <c r="U51" t="n">
+        <v>219.32</v>
+      </c>
+      <c r="V51" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X51" t="n">
+        <v>5.056</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>44.81</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1066</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>8.728999999999999</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.0873</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>level59</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>images\level59.jpg</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>208</v>
+      </c>
+      <c r="E52" t="n">
+        <v>198</v>
+      </c>
+      <c r="F52" t="n">
+        <v>172</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50.05</v>
+      </c>
+      <c r="H52" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="I52" t="n">
+        <v>54.39</v>
+      </c>
+      <c r="J52" t="n">
+        <v>198.66</v>
+      </c>
+      <c r="K52" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="L52" t="n">
+        <v>64008</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="N52" t="n">
+        <v>199</v>
+      </c>
+      <c r="O52" t="n">
+        <v>189</v>
+      </c>
+      <c r="P52" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R52" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>85.93000000000001</v>
+      </c>
+      <c r="T52" t="n">
+        <v>180.97</v>
+      </c>
+      <c r="U52" t="n">
+        <v>208.05</v>
+      </c>
+      <c r="V52" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="X52" t="n">
+        <v>5.693</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>721</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>58.81</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>6.263</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.0626</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>level60</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>images\level60.jpg</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>223</v>
+      </c>
+      <c r="E53" t="n">
+        <v>207</v>
+      </c>
+      <c r="F53" t="n">
+        <v>183</v>
+      </c>
+      <c r="G53" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="H53" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="I53" t="n">
+        <v>47.68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>209.74</v>
+      </c>
+      <c r="K53" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="L53" t="n">
+        <v>82108</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="N53" t="n">
+        <v>215</v>
+      </c>
+      <c r="O53" t="n">
+        <v>195</v>
+      </c>
+      <c r="P53" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R53" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="S53" t="n">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="T53" t="n">
+        <v>185.53</v>
+      </c>
+      <c r="U53" t="n">
+        <v>219.52</v>
+      </c>
+      <c r="V53" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5.258</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>315</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>6.261</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.0626</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>level61</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>images\level61.jpg</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>220</v>
+      </c>
+      <c r="E54" t="n">
+        <v>204</v>
+      </c>
+      <c r="F54" t="n">
+        <v>174</v>
+      </c>
+      <c r="G54" t="n">
+        <v>42.41</v>
+      </c>
+      <c r="H54" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="I54" t="n">
+        <v>57.26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>205.98</v>
+      </c>
+      <c r="K54" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="L54" t="n">
+        <v>147899</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="N54" t="n">
+        <v>245</v>
+      </c>
+      <c r="O54" t="n">
+        <v>231</v>
+      </c>
+      <c r="P54" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>77.87</v>
+      </c>
+      <c r="T54" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="U54" t="n">
+        <v>215.08</v>
+      </c>
+      <c r="V54" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="X54" t="n">
+        <v>5.352</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>5.517</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.0552</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>level62</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>images\level62.jpg</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E55" t="n">
+        <v>204</v>
+      </c>
+      <c r="F55" t="n">
+        <v>179</v>
+      </c>
+      <c r="G55" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="H55" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="I55" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="K55" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="L55" t="n">
+        <v>69699</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>128</v>
+      </c>
+      <c r="O55" t="n">
+        <v>137</v>
+      </c>
+      <c r="P55" t="n">
+        <v>134</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R55" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="S55" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="T55" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="U55" t="n">
+        <v>217.87</v>
+      </c>
+      <c r="V55" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="X55" t="n">
+        <v>5.207</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>482</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>6.262</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.0626</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>level63</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>images\level63.jpg</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>232</v>
+      </c>
+      <c r="E56" t="n">
+        <v>218</v>
+      </c>
+      <c r="F56" t="n">
+        <v>180</v>
+      </c>
+      <c r="G56" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="I56" t="n">
+        <v>50.05</v>
+      </c>
+      <c r="J56" t="n">
+        <v>218.33</v>
+      </c>
+      <c r="K56" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L56" t="n">
+        <v>59438</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="N56" t="n">
+        <v>251</v>
+      </c>
+      <c r="O56" t="n">
+        <v>234</v>
+      </c>
+      <c r="P56" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R56" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="S56" t="n">
+        <v>105.21</v>
+      </c>
+      <c r="T56" t="n">
+        <v>192.44</v>
+      </c>
+      <c r="U56" t="n">
+        <v>232.18</v>
+      </c>
+      <c r="V56" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.712</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>299</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>79.98</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.0433</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>level64</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>images\level64.jpg</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>225</v>
+      </c>
+      <c r="E57" t="n">
+        <v>204</v>
+      </c>
+      <c r="F57" t="n">
+        <v>190</v>
+      </c>
+      <c r="G57" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="H57" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="I57" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>208.78</v>
+      </c>
+      <c r="K57" t="n">
+        <v>49.53</v>
+      </c>
+      <c r="L57" t="n">
+        <v>65686</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="N57" t="n">
+        <v>253</v>
+      </c>
+      <c r="O57" t="n">
+        <v>233</v>
+      </c>
+      <c r="P57" t="n">
+        <v>209</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R57" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="S57" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="T57" t="n">
+        <v>162.95</v>
+      </c>
+      <c r="U57" t="n">
+        <v>230.82</v>
+      </c>
+      <c r="V57" t="n">
+        <v>67.87</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>49.53</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>835</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>4.873</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.0487</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>level65</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>images\level65.jpg</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>143</v>
+      </c>
+      <c r="E58" t="n">
+        <v>147</v>
+      </c>
+      <c r="F58" t="n">
+        <v>149</v>
+      </c>
+      <c r="G58" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="H58" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="I58" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="J58" t="n">
+        <v>146.65</v>
+      </c>
+      <c r="K58" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="L58" t="n">
+        <v>75223</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>132</v>
+      </c>
+      <c r="O58" t="n">
+        <v>141</v>
+      </c>
+      <c r="P58" t="n">
+        <v>160</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R58" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>109.45</v>
+      </c>
+      <c r="T58" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="U58" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>318</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>level66</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>images\level66.jpg</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>208</v>
+      </c>
+      <c r="E59" t="n">
+        <v>193</v>
+      </c>
+      <c r="F59" t="n">
+        <v>162</v>
+      </c>
+      <c r="G59" t="n">
+        <v>59.83</v>
+      </c>
+      <c r="H59" t="n">
+        <v>56.17</v>
+      </c>
+      <c r="I59" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="J59" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>56.62</v>
+      </c>
+      <c r="L59" t="n">
+        <v>69857</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="N59" t="n">
+        <v>177</v>
+      </c>
+      <c r="O59" t="n">
+        <v>163</v>
+      </c>
+      <c r="P59" t="n">
+        <v>115</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R59" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="S59" t="n">
+        <v>97.22</v>
+      </c>
+      <c r="T59" t="n">
+        <v>146.59</v>
+      </c>
+      <c r="U59" t="n">
+        <v>222.04</v>
+      </c>
+      <c r="V59" t="n">
+        <v>75.45</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="X59" t="n">
+        <v>4.433</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>56.62</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>354</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>5.331</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.0533</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>level67</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>images\level67.jpg</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>226</v>
+      </c>
+      <c r="E60" t="n">
+        <v>211</v>
+      </c>
+      <c r="F60" t="n">
+        <v>185</v>
+      </c>
+      <c r="G60" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="H60" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="I60" t="n">
+        <v>50.26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>213.05</v>
+      </c>
+      <c r="K60" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="L60" t="n">
+        <v>55113</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N60" t="n">
+        <v>251</v>
+      </c>
+      <c r="O60" t="n">
+        <v>234</v>
+      </c>
+      <c r="P60" t="n">
+        <v>211</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R60" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="S60" t="n">
+        <v>105.04</v>
+      </c>
+      <c r="T60" t="n">
+        <v>176.72</v>
+      </c>
+      <c r="U60" t="n">
+        <v>232.59</v>
+      </c>
+      <c r="V60" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="X60" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>362</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>5.335</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.0534</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>level68</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>images\level68.jpg</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>207</v>
+      </c>
+      <c r="E61" t="n">
+        <v>205</v>
+      </c>
+      <c r="F61" t="n">
+        <v>194</v>
+      </c>
+      <c r="G61" t="n">
+        <v>39.46</v>
+      </c>
+      <c r="H61" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="I61" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="J61" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="K61" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="L61" t="n">
+        <v>80908</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="N61" t="n">
+        <v>214</v>
+      </c>
+      <c r="O61" t="n">
+        <v>220</v>
+      </c>
+      <c r="P61" t="n">
+        <v>218</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="S61" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="T61" t="n">
+        <v>188.69</v>
+      </c>
+      <c r="U61" t="n">
+        <v>214.14</v>
+      </c>
+      <c r="V61" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="X61" t="n">
+        <v>5.258</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>715</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>6.332</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.0633</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>level69</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>images\level69.jpg</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>219</v>
+      </c>
+      <c r="E62" t="n">
+        <v>197</v>
+      </c>
+      <c r="F62" t="n">
+        <v>167</v>
+      </c>
+      <c r="G62" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>52.58</v>
+      </c>
+      <c r="I62" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="J62" t="n">
+        <v>200.57</v>
+      </c>
+      <c r="K62" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="L62" t="n">
+        <v>78660</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="N62" t="n">
+        <v>251</v>
+      </c>
+      <c r="O62" t="n">
+        <v>233</v>
+      </c>
+      <c r="P62" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R62" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="S62" t="n">
+        <v>89.59</v>
+      </c>
+      <c r="T62" t="n">
+        <v>152.29</v>
+      </c>
+      <c r="U62" t="n">
+        <v>221.75</v>
+      </c>
+      <c r="V62" t="n">
+        <v>69.47</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="X62" t="n">
+        <v>4.333</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>424</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>64.41</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.0497</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>level70</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>images\level70.jpg</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>205</v>
+      </c>
+      <c r="E63" t="n">
+        <v>195</v>
+      </c>
+      <c r="F63" t="n">
+        <v>171</v>
+      </c>
+      <c r="G63" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="H63" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="I63" t="n">
+        <v>55.06</v>
+      </c>
+      <c r="J63" t="n">
+        <v>195.79</v>
+      </c>
+      <c r="K63" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>74109</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="N63" t="n">
+        <v>228</v>
+      </c>
+      <c r="O63" t="n">
+        <v>220</v>
+      </c>
+      <c r="P63" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R63" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="S63" t="n">
+        <v>82.45999999999999</v>
+      </c>
+      <c r="T63" t="n">
+        <v>162.79</v>
+      </c>
+      <c r="U63" t="n">
+        <v>211.87</v>
+      </c>
+      <c r="V63" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="X63" t="n">
+        <v>4.902</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>731</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>58.84</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.0668</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>level71</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>images\level71.jpg</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>212</v>
+      </c>
+      <c r="E64" t="n">
+        <v>201</v>
+      </c>
+      <c r="F64" t="n">
+        <v>183</v>
+      </c>
+      <c r="G64" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="H64" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="I64" t="n">
+        <v>43.88</v>
+      </c>
+      <c r="J64" t="n">
+        <v>203.06</v>
+      </c>
+      <c r="K64" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>81056</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N64" t="n">
+        <v>229</v>
+      </c>
+      <c r="O64" t="n">
+        <v>219</v>
+      </c>
+      <c r="P64" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R64" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="S64" t="n">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="T64" t="n">
+        <v>179.32</v>
+      </c>
+      <c r="U64" t="n">
+        <v>214.37</v>
+      </c>
+      <c r="V64" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="X64" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>572</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>68.27</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>6.313</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.0631</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>level72</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>images\level72.jpg</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>225</v>
+      </c>
+      <c r="E65" t="n">
+        <v>212</v>
+      </c>
+      <c r="F65" t="n">
+        <v>186</v>
+      </c>
+      <c r="G65" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="H65" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="I65" t="n">
+        <v>51.19</v>
+      </c>
+      <c r="J65" t="n">
+        <v>213.39</v>
+      </c>
+      <c r="K65" t="n">
+        <v>44.26</v>
+      </c>
+      <c r="L65" t="n">
+        <v>76943</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N65" t="n">
+        <v>250</v>
+      </c>
+      <c r="O65" t="n">
+        <v>234</v>
+      </c>
+      <c r="P65" t="n">
+        <v>211</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R65" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="S65" t="n">
+        <v>95.19</v>
+      </c>
+      <c r="T65" t="n">
+        <v>186.21</v>
+      </c>
+      <c r="U65" t="n">
+        <v>231.75</v>
+      </c>
+      <c r="V65" t="n">
+        <v>45.54</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="X65" t="n">
+        <v>4.111</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>44.26</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>418</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>5.696</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>level73</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>images\level73.jpg</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>214</v>
+      </c>
+      <c r="E66" t="n">
+        <v>205</v>
+      </c>
+      <c r="F66" t="n">
+        <v>164</v>
+      </c>
+      <c r="G66" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="H66" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="I66" t="n">
+        <v>63.36</v>
+      </c>
+      <c r="J66" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="K66" t="n">
+        <v>47.34</v>
+      </c>
+      <c r="L66" t="n">
+        <v>80164</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N66" t="n">
+        <v>244</v>
+      </c>
+      <c r="O66" t="n">
+        <v>231</v>
+      </c>
+      <c r="P66" t="n">
+        <v>209</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R66" t="n">
+        <v>36</v>
+      </c>
+      <c r="S66" t="n">
+        <v>105.02</v>
+      </c>
+      <c r="T66" t="n">
+        <v>168.49</v>
+      </c>
+      <c r="U66" t="n">
+        <v>220.29</v>
+      </c>
+      <c r="V66" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="X66" t="n">
+        <v>4.899</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>47.34</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>370</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>58.85</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>6.181</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.0618</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>level74</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>images\level74.jpg</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>217</v>
+      </c>
+      <c r="E67" t="n">
+        <v>208</v>
+      </c>
+      <c r="F67" t="n">
+        <v>186</v>
+      </c>
+      <c r="G67" t="n">
+        <v>40.05</v>
+      </c>
+      <c r="H67" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="I67" t="n">
+        <v>63.07</v>
+      </c>
+      <c r="J67" t="n">
+        <v>208.74</v>
+      </c>
+      <c r="K67" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>84670</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="N67" t="n">
+        <v>240</v>
+      </c>
+      <c r="O67" t="n">
+        <v>235</v>
+      </c>
+      <c r="P67" t="n">
+        <v>227</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>84.73999999999999</v>
+      </c>
+      <c r="T67" t="n">
+        <v>172.54</v>
+      </c>
+      <c r="U67" t="n">
+        <v>228.07</v>
+      </c>
+      <c r="V67" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="X67" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>635</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>5.845</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.0584</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>level76</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>images\level76.jpg</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>229</v>
+      </c>
+      <c r="E68" t="n">
+        <v>223</v>
+      </c>
+      <c r="F68" t="n">
+        <v>208</v>
+      </c>
+      <c r="G68" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="H68" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="I68" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="J68" t="n">
+        <v>223.93</v>
+      </c>
+      <c r="K68" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>53895</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N68" t="n">
+        <v>240</v>
+      </c>
+      <c r="O68" t="n">
+        <v>234</v>
+      </c>
+      <c r="P68" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R68" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="S68" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="T68" t="n">
+        <v>193.98</v>
+      </c>
+      <c r="U68" t="n">
+        <v>234.79</v>
+      </c>
+      <c r="V68" t="n">
+        <v>40.81</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.946</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>234</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>85.34</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.0381</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>level77</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>images\level77.jpg</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>233</v>
+      </c>
+      <c r="E69" t="n">
+        <v>220</v>
+      </c>
+      <c r="F69" t="n">
+        <v>191</v>
+      </c>
+      <c r="G69" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="H69" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="I69" t="n">
+        <v>41.59</v>
+      </c>
+      <c r="J69" t="n">
+        <v>221.23</v>
+      </c>
+      <c r="K69" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="L69" t="n">
+        <v>54637</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="N69" t="n">
+        <v>250</v>
+      </c>
+      <c r="O69" t="n">
+        <v>233</v>
+      </c>
+      <c r="P69" t="n">
+        <v>209</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R69" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="S69" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="T69" t="n">
+        <v>203.77</v>
+      </c>
+      <c r="U69" t="n">
+        <v>231.28</v>
+      </c>
+      <c r="V69" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.624</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>343</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>4.143</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.0414</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>level78</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>images\level78.jpg</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>221</v>
+      </c>
+      <c r="E70" t="n">
+        <v>210</v>
+      </c>
+      <c r="F70" t="n">
+        <v>189</v>
+      </c>
+      <c r="G70" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="H70" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>61.28</v>
+      </c>
+      <c r="J70" t="n">
+        <v>211.68</v>
+      </c>
+      <c r="K70" t="n">
+        <v>39.88</v>
+      </c>
+      <c r="L70" t="n">
+        <v>75071</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="N70" t="n">
+        <v>237</v>
+      </c>
+      <c r="O70" t="n">
+        <v>233</v>
+      </c>
+      <c r="P70" t="n">
+        <v>227</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R70" t="n">
+        <v>29</v>
+      </c>
+      <c r="S70" t="n">
+        <v>89.53</v>
+      </c>
+      <c r="T70" t="n">
+        <v>176.56</v>
+      </c>
+      <c r="U70" t="n">
+        <v>228.67</v>
+      </c>
+      <c r="V70" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>39.88</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>844</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>70.53</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>5.539</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0.0554</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>level79</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>images\level79.jpg</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>210</v>
+      </c>
+      <c r="E71" t="n">
+        <v>222</v>
+      </c>
+      <c r="F71" t="n">
+        <v>227</v>
+      </c>
+      <c r="G71" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="H71" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="I71" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="J71" t="n">
+        <v>219.94</v>
+      </c>
+      <c r="K71" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="L71" t="n">
+        <v>68337</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="N71" t="n">
+        <v>244</v>
+      </c>
+      <c r="O71" t="n">
+        <v>229</v>
+      </c>
+      <c r="P71" t="n">
+        <v>228</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R71" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="S71" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="T71" t="n">
+        <v>211.49</v>
+      </c>
+      <c r="U71" t="n">
+        <v>223.92</v>
+      </c>
+      <c r="V71" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="X71" t="n">
+        <v>5.225</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>341</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>89.43000000000001</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>4.754</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.0475</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>level80</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>images\level80.jpg</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>96</v>
+      </c>
+      <c r="E72" t="n">
+        <v>94</v>
+      </c>
+      <c r="F72" t="n">
+        <v>89</v>
+      </c>
+      <c r="G72" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>57.98</v>
+      </c>
+      <c r="I72" t="n">
+        <v>58.62</v>
+      </c>
+      <c r="J72" t="n">
+        <v>94.62</v>
+      </c>
+      <c r="K72" t="n">
+        <v>58.11</v>
+      </c>
+      <c r="L72" t="n">
+        <v>83725</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="N72" t="n">
+        <v>46</v>
+      </c>
+      <c r="O72" t="n">
+        <v>48</v>
+      </c>
+      <c r="P72" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="R72" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="S72" t="n">
+        <v>77.08</v>
+      </c>
+      <c r="T72" t="n">
+        <v>129.63</v>
+      </c>
+      <c r="U72" t="n">
+        <v>69.08</v>
+      </c>
+      <c r="V72" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="X72" t="n">
+        <v>4.745</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>58.11</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>512</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.0622</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>level81</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>images\level81.jpg</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>175</v>
+      </c>
+      <c r="E73" t="n">
+        <v>192</v>
+      </c>
+      <c r="F73" t="n">
+        <v>174</v>
+      </c>
+      <c r="G73" t="n">
+        <v>39.79</v>
+      </c>
+      <c r="H73" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="I73" t="n">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185.46</v>
+      </c>
+      <c r="K73" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>96482</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="N73" t="n">
+        <v>193</v>
+      </c>
+      <c r="O73" t="n">
+        <v>225</v>
+      </c>
+      <c r="P73" t="n">
+        <v>228</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R73" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="S73" t="n">
+        <v>104.64</v>
+      </c>
+      <c r="T73" t="n">
+        <v>152.48</v>
+      </c>
+      <c r="U73" t="n">
+        <v>199.76</v>
+      </c>
+      <c r="V73" t="n">
+        <v>47.28</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="X73" t="n">
+        <v>6.579</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>599</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>59.39</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>7.277</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.0728</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>level82</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>images\level82.jpg</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>184</v>
+      </c>
+      <c r="E74" t="n">
+        <v>177</v>
+      </c>
+      <c r="F74" t="n">
+        <v>166</v>
+      </c>
+      <c r="G74" t="n">
+        <v>42.71</v>
+      </c>
+      <c r="H74" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="I74" t="n">
+        <v>60.88</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178.33</v>
+      </c>
+      <c r="K74" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="L74" t="n">
+        <v>97495</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="N74" t="n">
+        <v>206</v>
+      </c>
+      <c r="O74" t="n">
+        <v>206</v>
+      </c>
+      <c r="P74" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="R74" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="S74" t="n">
+        <v>75.62</v>
+      </c>
+      <c r="T74" t="n">
+        <v>146.48</v>
+      </c>
+      <c r="U74" t="n">
+        <v>193.84</v>
+      </c>
+      <c r="V74" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="X74" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>564</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>6.267</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.06270000000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>level83</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>images\level83.jpg</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>219</v>
+      </c>
+      <c r="E75" t="n">
+        <v>215</v>
+      </c>
+      <c r="F75" t="n">
+        <v>187</v>
+      </c>
+      <c r="G75" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="H75" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="I75" t="n">
+        <v>43.55</v>
+      </c>
+      <c r="J75" t="n">
+        <v>213.52</v>
+      </c>
+      <c r="K75" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="L75" t="n">
+        <v>76064</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="N75" t="n">
+        <v>233</v>
+      </c>
+      <c r="O75" t="n">
+        <v>231</v>
+      </c>
+      <c r="P75" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R75" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="S75" t="n">
+        <v>86.59</v>
+      </c>
+      <c r="T75" t="n">
+        <v>189.72</v>
+      </c>
+      <c r="U75" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="V75" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="X75" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>764</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>5.428</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.0543</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>level84</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>images\level84.jpg</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>226</v>
+      </c>
+      <c r="E76" t="n">
+        <v>229</v>
+      </c>
+      <c r="F76" t="n">
+        <v>209</v>
+      </c>
+      <c r="G76" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="H76" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="I76" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="J76" t="n">
+        <v>226.37</v>
+      </c>
+      <c r="K76" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="L76" t="n">
+        <v>68828</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="N76" t="n">
+        <v>237</v>
+      </c>
+      <c r="O76" t="n">
+        <v>245</v>
+      </c>
+      <c r="P76" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R76" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="S76" t="n">
+        <v>88.22</v>
+      </c>
+      <c r="T76" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="U76" t="n">
+        <v>239.84</v>
+      </c>
+      <c r="V76" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4.965</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>328</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>4.801</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>level85</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>images\level85.jpg</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>227</v>
+      </c>
+      <c r="E77" t="n">
+        <v>209</v>
+      </c>
+      <c r="F77" t="n">
+        <v>179</v>
+      </c>
+      <c r="G77" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="H77" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="I77" t="n">
+        <v>44.63</v>
+      </c>
+      <c r="J77" t="n">
+        <v>211.78</v>
+      </c>
+      <c r="K77" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="L77" t="n">
+        <v>72342</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N77" t="n">
+        <v>250</v>
+      </c>
+      <c r="O77" t="n">
+        <v>235</v>
+      </c>
+      <c r="P77" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R77" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="S77" t="n">
+        <v>92.65000000000001</v>
+      </c>
+      <c r="T77" t="n">
+        <v>171.05</v>
+      </c>
+      <c r="U77" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>60.05</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4.071</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>440</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>72.18000000000001</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>4.976</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.0498</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>level86</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>images\level86.jpg</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>201</v>
+      </c>
+      <c r="E78" t="n">
+        <v>217</v>
+      </c>
+      <c r="F78" t="n">
+        <v>193</v>
+      </c>
+      <c r="G78" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="H78" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="I78" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>210.21</v>
+      </c>
+      <c r="K78" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="L78" t="n">
+        <v>96731</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="N78" t="n">
+        <v>203</v>
+      </c>
+      <c r="O78" t="n">
+        <v>238</v>
+      </c>
+      <c r="P78" t="n">
+        <v>234</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R78" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="S78" t="n">
+        <v>78.73</v>
+      </c>
+      <c r="T78" t="n">
+        <v>184.97</v>
+      </c>
+      <c r="U78" t="n">
+        <v>221.95</v>
+      </c>
+      <c r="V78" t="n">
+        <v>36.97</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="X78" t="n">
+        <v>5.547</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>780</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>75.12</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>5.318</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.0532</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>level87</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>images\level87.jpg</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>211</v>
+      </c>
+      <c r="E79" t="n">
+        <v>220</v>
+      </c>
+      <c r="F79" t="n">
+        <v>195</v>
+      </c>
+      <c r="G79" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="H79" t="n">
+        <v>38.57</v>
+      </c>
+      <c r="I79" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="J79" t="n">
+        <v>215.44</v>
+      </c>
+      <c r="K79" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="L79" t="n">
+        <v>76554</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="N79" t="n">
+        <v>214</v>
+      </c>
+      <c r="O79" t="n">
+        <v>237</v>
+      </c>
+      <c r="P79" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R79" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="S79" t="n">
+        <v>94.38</v>
+      </c>
+      <c r="T79" t="n">
+        <v>198.32</v>
+      </c>
+      <c r="U79" t="n">
+        <v>225.69</v>
+      </c>
+      <c r="V79" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.914</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>573</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>79.13</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>5.748</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0.0575</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>level88</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>images\level88.jpg</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>198</v>
+      </c>
+      <c r="E80" t="n">
+        <v>204</v>
+      </c>
+      <c r="F80" t="n">
+        <v>215</v>
+      </c>
+      <c r="G80" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="H80" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="I80" t="n">
+        <v>50.07</v>
+      </c>
+      <c r="J80" t="n">
+        <v>203.83</v>
+      </c>
+      <c r="K80" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="L80" t="n">
+        <v>92280</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="N80" t="n">
+        <v>229</v>
+      </c>
+      <c r="O80" t="n">
+        <v>175</v>
+      </c>
+      <c r="P80" t="n">
+        <v>122</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R80" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="S80" t="n">
+        <v>80.01000000000001</v>
+      </c>
+      <c r="T80" t="n">
+        <v>180.67</v>
+      </c>
+      <c r="U80" t="n">
+        <v>213.17</v>
+      </c>
+      <c r="V80" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>530</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>5.401</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>level90</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>images\level90.jpg</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>141</v>
+      </c>
+      <c r="E81" t="n">
         <v>139</v>
       </c>
-      <c r="T2" t="n">
-        <v>88</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V2" t="n">
-        <v>53.22</v>
-      </c>
-      <c r="W2" t="n">
-        <v>130.55</v>
-      </c>
-      <c r="X2" t="n">
-        <v>187.77</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>143.11</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>44.66</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.025</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>57.73</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1763</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7.127</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.0713</v>
+      <c r="F81" t="n">
+        <v>134</v>
+      </c>
+      <c r="G81" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="H81" t="n">
+        <v>32</v>
+      </c>
+      <c r="I81" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>139.51</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="L81" t="n">
+        <v>71386</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="N81" t="n">
+        <v>149</v>
+      </c>
+      <c r="O81" t="n">
+        <v>119</v>
+      </c>
+      <c r="P81" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R81" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="S81" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="T81" t="n">
+        <v>124.52</v>
+      </c>
+      <c r="U81" t="n">
+        <v>147.74</v>
+      </c>
+      <c r="V81" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="X81" t="n">
+        <v>4.006</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>612</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.0606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>level92</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>images\level92.jpg</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>201</v>
+      </c>
+      <c r="E82" t="n">
+        <v>211</v>
+      </c>
+      <c r="F82" t="n">
+        <v>203</v>
+      </c>
+      <c r="G82" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="H82" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="I82" t="n">
+        <v>52.89</v>
+      </c>
+      <c r="J82" t="n">
+        <v>207.63</v>
+      </c>
+      <c r="K82" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L82" t="n">
+        <v>79227</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="N82" t="n">
+        <v>196</v>
+      </c>
+      <c r="O82" t="n">
+        <v>227</v>
+      </c>
+      <c r="P82" t="n">
+        <v>237</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R82" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="S82" t="n">
+        <v>81.73</v>
+      </c>
+      <c r="T82" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="U82" t="n">
+        <v>214.96</v>
+      </c>
+      <c r="V82" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.979</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>532</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>77.81999999999999</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0.055</v>
       </c>
     </row>
   </sheetData>
